--- a/PAT/Excel Data Backups/IT and Nursing Courses.xlsx
+++ b/PAT/Excel Data Backups/IT and Nursing Courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kimberley/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kimberley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D70C2E0-8139-C84C-903E-9E4211846021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966FFC11-4D93-3F4E-84E2-61CE92DFC1BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{4096D7D1-5F0E-4D4B-8412-EB8F8B18B7E6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{4096D7D1-5F0E-4D4B-8412-EB8F8B18B7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
   <si>
     <t>COURSE CODE</t>
   </si>
@@ -623,6 +623,33 @@
   </si>
   <si>
     <t>HUBS1416, HUBS1406, NURS1101</t>
+  </si>
+  <si>
+    <t>SENG1110 or INFT1004</t>
+  </si>
+  <si>
+    <t>SENG1110 orINFT1004 or COMP1010</t>
+  </si>
+  <si>
+    <t>COMP1050</t>
+  </si>
+  <si>
+    <t>INFT3150</t>
+  </si>
+  <si>
+    <t>SENG3300</t>
+  </si>
+  <si>
+    <t>SENG1050, SENG1110 or INFT1004</t>
+  </si>
+  <si>
+    <t>COMP3850</t>
+  </si>
+  <si>
+    <t>EBUS3010</t>
+  </si>
+  <si>
+    <t>COMP1140, SENG1110 or INFT1004</t>
   </si>
 </sst>
 </file>
@@ -1022,16 +1049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF90BE0-F67B-7241-BF16-A0CC52CBEB59}">
   <dimension ref="B4:H77"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -1137,7 +1165,9 @@
         <v>31</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
@@ -1176,7 +1206,9 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1195,7 +1227,9 @@
       <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -1214,7 +1248,9 @@
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1233,8 +1269,12 @@
       <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -1252,8 +1292,12 @@
       <c r="F14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -1312,7 +1356,9 @@
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
@@ -1359,7 +1405,9 @@
         <v>36</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
@@ -1377,7 +1425,9 @@
       <c r="F21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -2431,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47E6C6C-4799-CD49-9B73-AC5BEA8EABD3}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
